--- a/民族体育项目打分汇总表_new.xlsx
+++ b/民族体育项目打分汇总表_new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>expert</t>
   </si>
@@ -134,6 +134,15 @@
     <t>group_name</t>
   </si>
   <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
     <t>博士A</t>
   </si>
   <si>
@@ -141,6 +150,12 @@
   </si>
   <si>
     <t>泽普县</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>喀什地区</t>
   </si>
   <si>
     <t>博士B</t>
@@ -1333,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
@@ -1376,9 +1391,12 @@
     <col min="33" max="33" width="20.8125" customWidth="1"/>
     <col min="34" max="34" width="12.4375" customWidth="1"/>
     <col min="35" max="35" width="11.5625" customWidth="1"/>
+    <col min="36" max="36" width="16.0625" customWidth="1"/>
+    <col min="37" max="37" width="8.5" customWidth="1"/>
+    <col min="38" max="38" width="6.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1484,10 +1502,19 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -1586,15 +1613,24 @@
         <v>93</v>
       </c>
       <c r="AH2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -1693,15 +1729,24 @@
         <v>81</v>
       </c>
       <c r="AH3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -1800,15 +1845,24 @@
         <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -1907,15 +1961,24 @@
         <v>87</v>
       </c>
       <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AK5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>87</v>
@@ -2014,15 +2077,24 @@
         <v>90</v>
       </c>
       <c r="AH6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>41</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AK6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>92</v>
@@ -2121,15 +2193,24 @@
         <v>77</v>
       </c>
       <c r="AH7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AK7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>86</v>
@@ -2228,15 +2309,24 @@
         <v>89</v>
       </c>
       <c r="AH8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>91</v>
@@ -2335,15 +2425,24 @@
         <v>80</v>
       </c>
       <c r="AH9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>86</v>
@@ -2442,15 +2541,24 @@
         <v>82</v>
       </c>
       <c r="AH10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -2549,10 +2657,19 @@
         <v>89</v>
       </c>
       <c r="AH11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="35:35">
